--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spencer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spencer\fuckeclipse\ClueGame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56598B-3780-45B2-9CB5-A5AD62C2F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5DACF-9642-4FDC-B622-3CF9E0075B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2835" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23640" yWindow="2475" windowWidth="20685" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClueLayout" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,6 @@
     <t>BL</t>
   </si>
   <si>
-    <t>^W</t>
-  </si>
-  <si>
-    <t>v W</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>C#</t>
   </si>
   <si>
-    <t>&lt;W</t>
-  </si>
-  <si>
     <t>S*</t>
   </si>
   <si>
@@ -141,6 +132,15 @@
   </si>
   <si>
     <t>LB</t>
+  </si>
+  <si>
+    <t>W^</t>
+  </si>
+  <si>
+    <t>W&lt;</t>
+  </si>
+  <si>
+    <t>Wv</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>0</v>
@@ -1054,49 +1054,49 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="V8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -1125,49 +1125,49 @@
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1196,49 +1196,49 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="V10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1246,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -1267,49 +1267,49 @@
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>0</v>
@@ -1495,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>0</v>
@@ -1513,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1566,16 +1566,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="P15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>0</v>
@@ -1584,36 +1584,36 @@
         <v>0</v>
       </c>
       <c r="T15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="V15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>0</v>
@@ -1655,51 +1655,51 @@
         <v>0</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>0</v>
@@ -1726,36 +1726,36 @@
         <v>0</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
@@ -1764,69 +1764,69 @@
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>0</v>
@@ -1868,36 +1868,36 @@
         <v>0</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>0</v>
@@ -1939,24 +1939,24 @@
         <v>0</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>0</v>
@@ -2010,30 +2010,30 @@
         <v>0</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>0</v>
@@ -2081,39 +2081,39 @@
         <v>0</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>1</v>
@@ -2152,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
